--- a/doc/origin_gis.xlsx
+++ b/doc/origin_gis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NIPI\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4ABF179-0384-4A14-A698-1CB9F5876245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C4C581-5EF4-4A23-AA82-DC4D58603A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="гис3102" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -688,13 +688,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A12" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -892,7 +894,7 @@
         <v>1610</v>
       </c>
       <c r="I2" s="7">
-        <v>1.5700000524520874</v>
+        <v>1.6</v>
       </c>
       <c r="J2" s="7">
         <v>1611.5700000524521</v>
@@ -1029,7 +1031,7 @@
         <v>1611.5700000524521</v>
       </c>
       <c r="I3" s="3">
-        <v>0.7899852991104126</v>
+        <v>0.8000000000001819</v>
       </c>
       <c r="J3" s="3">
         <v>1612.3599853515625</v>
@@ -1114,7 +1116,7 @@
         <v>1612.3599853515625</v>
       </c>
       <c r="I4" s="7">
-        <v>0.98000001907348633</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <v>1613.339985370636</v>
@@ -1253,7 +1255,7 @@
         <v>1613.3399658203125</v>
       </c>
       <c r="I5" s="7">
-        <v>1.3700000047683716</v>
+        <v>1.4</v>
       </c>
       <c r="J5" s="7">
         <v>1614.7099658250809</v>
@@ -1392,7 +1394,7 @@
         <v>1614.7099609375</v>
       </c>
       <c r="I6" s="7">
-        <v>1.9600000381469727</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7">
         <v>1616.669960975647</v>
@@ -1531,7 +1533,7 @@
         <v>1616.6700439453125</v>
       </c>
       <c r="I7" s="7">
-        <v>1.9600000381469727</v>
+        <v>2</v>
       </c>
       <c r="J7" s="7">
         <v>1618.6300439834595</v>
@@ -1670,7 +1672,7 @@
         <v>1618.6300048828125</v>
       </c>
       <c r="I8" s="7">
-        <v>1.7699999809265137</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="7">
         <v>1620.400004863739</v>
@@ -1809,7 +1811,7 @@
         <v>1620.4000244140625</v>
       </c>
       <c r="I9" s="7">
-        <v>2.1600000858306885</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J9" s="7">
         <v>1622.5600244998932</v>
@@ -1946,7 +1948,7 @@
         <v>1622.5600244998932</v>
       </c>
       <c r="I10" s="3">
-        <v>1.5699803829193115</v>
+        <v>1.5999999999999091</v>
       </c>
       <c r="J10" s="3">
         <v>1624.1300048828125</v>
@@ -2022,7 +2024,7 @@
         <v>1766</v>
       </c>
       <c r="F11" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G11" s="7">
         <v>1770.8</v>
@@ -2031,7 +2033,7 @@
         <v>1624.1300048828125</v>
       </c>
       <c r="I11" s="7">
-        <v>4.6999998092651367</v>
+        <v>4.7</v>
       </c>
       <c r="J11" s="7">
         <v>1628.8300046920776</v>
@@ -2168,7 +2170,7 @@
         <v>1628.8299560546875</v>
       </c>
       <c r="I12" s="7">
-        <v>1.1799999475479126</v>
+        <v>1.2</v>
       </c>
       <c r="J12" s="7">
         <v>1630.0099560022354</v>
@@ -2305,7 +2307,7 @@
         <v>1630.0099560022354</v>
       </c>
       <c r="I13" s="3">
-        <v>0.9800342321395874</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <v>1630.989990234375</v>
@@ -2388,7 +2390,7 @@
         <v>1630.989990234375</v>
       </c>
       <c r="I14" s="4">
-        <v>5.1999998092651367</v>
+        <v>5.3</v>
       </c>
       <c r="J14" s="4">
         <v>1636.1899900436401</v>
@@ -2523,7 +2525,7 @@
         <v>1636.1899900436401</v>
       </c>
       <c r="I15" s="3">
-        <v>1.8700685501098633</v>
+        <v>1.9000000000000909</v>
       </c>
       <c r="J15" s="3">
         <v>1638.06005859375</v>
@@ -2606,7 +2608,7 @@
         <v>1638.06005859375</v>
       </c>
       <c r="I16" s="4">
-        <v>2.5499999523162842</v>
+        <v>2.6</v>
       </c>
       <c r="J16" s="4">
         <v>1640.6100585460663</v>
@@ -2741,7 +2743,7 @@
         <v>1640.6100585460663</v>
       </c>
       <c r="I17" s="3">
-        <v>0.97990727424621582</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>1641.5899658203125</v>
@@ -2824,7 +2826,7 @@
         <v>1641.5899658203125</v>
       </c>
       <c r="I18" s="4">
-        <v>1.9700000286102295</v>
+        <v>2</v>
       </c>
       <c r="J18" s="4">
         <v>1643.5599658489227</v>
@@ -2959,7 +2961,7 @@
         <v>1643.56005859375</v>
       </c>
       <c r="I19" s="4">
-        <v>6.2800002098083496</v>
+        <v>6.3</v>
       </c>
       <c r="J19" s="4">
         <v>1649.8400588035583</v>
@@ -3094,7 +3096,7 @@
         <v>1649.8399658203125</v>
       </c>
       <c r="I20" s="4">
-        <v>0.98000001907348633</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
         <v>1650.819965839386</v>
@@ -3218,7 +3220,7 @@
         <v>1793.2</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G21" s="4">
         <v>1798.2</v>
@@ -3227,7 +3229,7 @@
         <v>1650.8199462890625</v>
       </c>
       <c r="I21" s="4">
-        <v>4.9099998474121094</v>
+        <v>5</v>
       </c>
       <c r="J21" s="4">
         <v>1655.7299461364746</v>
@@ -3351,7 +3353,7 @@
         <v>1798.2</v>
       </c>
       <c r="F22" s="3">
-        <v>1.5999999999999091</v>
+        <v>1.5999999999999099</v>
       </c>
       <c r="G22" s="3">
         <v>1799.8</v>
@@ -3360,7 +3362,7 @@
         <v>1655.7299461364746</v>
       </c>
       <c r="I22" s="3">
-        <v>1.5701026916503906</v>
+        <v>1.5999999999999091</v>
       </c>
       <c r="J22" s="3">
         <v>1657.300048828125</v>
@@ -3443,7 +3445,7 @@
         <v>1657.300048828125</v>
       </c>
       <c r="I23" s="4">
-        <v>3.2400000095367432</v>
+        <v>3.2</v>
       </c>
       <c r="J23" s="4">
         <v>1660.5400488376617</v>
@@ -3576,7 +3578,7 @@
         <v>1660.5400488376617</v>
       </c>
       <c r="I24" s="3">
-        <v>1.4699609279632568</v>
+        <v>1.5</v>
       </c>
       <c r="J24" s="3">
         <v>1662.010009765625</v>
@@ -3659,7 +3661,7 @@
         <v>1662.010009765625</v>
       </c>
       <c r="I25" s="4">
-        <v>1.7699999809265137</v>
+        <v>1.8</v>
       </c>
       <c r="J25" s="4">
         <v>1663.7800097465515</v>
@@ -3783,7 +3785,7 @@
         <v>1806.4</v>
       </c>
       <c r="F26" s="4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G26" s="4">
         <v>1809.4</v>
@@ -3792,7 +3794,7 @@
         <v>1663.780029296875</v>
       </c>
       <c r="I26" s="4">
-        <v>2.940000057220459</v>
+        <v>3</v>
       </c>
       <c r="J26" s="4">
         <v>1666.7200293540955</v>
@@ -3925,7 +3927,7 @@
         <v>1666.719970703125</v>
       </c>
       <c r="I27" s="4">
-        <v>1.5700000524520874</v>
+        <v>1.6</v>
       </c>
       <c r="J27" s="4">
         <v>1668.2899707555771</v>
